--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958248.248607169</v>
+        <v>2958248.248607116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500466</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500466</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177365</v>
+        <v>3940022.790763615</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177365</v>
+        <v>3940022.790763615</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.63502051</v>
       </c>
     </row>
   </sheetData>
@@ -676,10 +676,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G2" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827905</v>
+        <v>208.1413738827904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -967,7 +967,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X5" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y5" t="n">
         <v>511.3174326828064</v>
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.5565566463266</v>
+        <v>383.0228566887534</v>
       </c>
       <c r="C6" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>346.4039869401295</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
         <v>342.6720972219126</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1232,13 +1232,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
-        <v>408.950811447027</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
         <v>404.3632896068686</v>
@@ -1444,7 +1444,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="12">
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4706963202523</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1806,10 +1806,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>408.950811447027</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>25.70923750768745</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D20" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E20" t="n">
         <v>404.3632896068686</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963202523</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>57.56516074743381</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963202523</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554472</v>
+        <v>481.9993129554617</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428666</v>
+        <v>449.4745782428811</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557397225</v>
+        <v>410.339155739737</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067413</v>
+        <v>404.3632896067559</v>
       </c>
       <c r="F29" t="n">
-        <v>403.5012844165632</v>
+        <v>404.8896287078991</v>
       </c>
       <c r="G29" t="n">
-        <v>397.884005452718</v>
+        <v>397.8840054527326</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>347.8590406129624</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210685272</v>
+        <v>361.0088210685417</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118537</v>
+        <v>560.9649184118682</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017497</v>
+        <v>648.7514272017643</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666966</v>
+        <v>628.4626798753116</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759808202</v>
+        <v>638.3734759808348</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605404</v>
+        <v>592.2818334605549</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826791</v>
+        <v>511.3174326826936</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.627682240965</v>
+        <v>350.6276822409074</v>
       </c>
       <c r="S30" t="n">
         <v>408.192915058951</v>
@@ -2991,7 +2991,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963224038</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>383.0228566887534</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C33" t="n">
         <v>361.0999124455193</v>
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3225,10 +3225,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>133.3568653036801</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611597173</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3517,10 +3517,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F38" t="n">
-        <v>403.5012844148837</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
         <v>397.8840054528454</v>
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>403.5012844148837</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3830,7 +3830,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D42" t="n">
-        <v>347.9376868977026</v>
+        <v>346.4039869401295</v>
       </c>
       <c r="E42" t="n">
         <v>342.6720972219126</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3936,10 +3936,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.70923750768745</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>448.0862339500209</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="45">
@@ -4082,7 +4082,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I45" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
         <v>408.192915058951</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4357,31 +4357,31 @@
         <v>5912.12964013179</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>438.4639669707671</v>
+        <v>426.6131206966358</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,19 +4549,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4588,37 +4588,37 @@
         <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800485</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897899</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4628,10 +4628,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C6" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D6" t="n">
         <v>1570.91243893972</v>
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4819,43 +4819,43 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>2739.192211873577</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N8" t="n">
-        <v>3304.235275746249</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800485</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4971,19 +4971,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
-        <v>438.4639669707671</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546288</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048314</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324045</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044379</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069938</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960388</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756553</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043494</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.013012360077</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>2739.19221187358</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>3304.235275746252</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>4214.390158686996</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
-        <v>5864.602299898056</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430707</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249248</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471548</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>166.9289267754451</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361344454</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003234904</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H14" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756553</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.420289043494</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2257.013012360077</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>2739.19221187358</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>3304.235275746252</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>4214.390158686996</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299898056</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I15" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372911</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>275.6639043471548</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>166.9289267754451</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>140.9600000000032</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324045</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044379</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069938</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960388</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>599.7771454756553</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>1339.420289043494</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>3071.357825473724</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M17" t="n">
-        <v>3553.537024987227</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N17" t="n">
-        <v>4118.580088859899</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O17" t="n">
-        <v>5028.734971800643</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299898056</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>275.6639043471548</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>166.9289267754451</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>140.9600000000032</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351496</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071831</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361344454</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003234904</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756553</v>
+        <v>604.2055058577386</v>
       </c>
       <c r="K20" t="n">
-        <v>1443.861463236688</v>
+        <v>2053.555015773446</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.241463236727</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.42066275023</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622902</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563646</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.485937661059</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372911</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893228</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>199.1066270176131</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361344454</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003234904</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756553</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1339.420289043494</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2257.013012360077</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M23" t="n">
-        <v>2739.19221187358</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.235275746252</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O23" t="n">
-        <v>4214.390158686996</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P23" t="n">
-        <v>5912.129640131792</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000159</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372911</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>275.6639043471548</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>166.9289267754451</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="O25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="P25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="R25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="S25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="T25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6244,40 +6244,40 @@
         <v>2739.192211873577</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.235275746249</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O26" t="n">
-        <v>4214.390158686993</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897899</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6393,7 +6393,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
         <v>275.6639043471516</v>
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547159</v>
+        <v>2580.16171551815</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049313</v>
+        <v>2126.14699002029</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352624</v>
+        <v>1711.662994323586</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859073087</v>
+        <v>1303.215227044035</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041068619</v>
+        <v>894.2358041067628</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682959217</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6487,34 +6487,34 @@
         <v>4214.390158686993</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897899</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183307</v>
+        <v>6683.344625183291</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464264</v>
+        <v>6116.713394464232</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543304</v>
+        <v>5461.408922543258</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819368</v>
+        <v>4826.598134790418</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909448</v>
+        <v>4181.776441880484</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666478</v>
+        <v>3583.511963637499</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431449</v>
+        <v>3067.029708402455</v>
       </c>
     </row>
     <row r="30">
@@ -6548,28 +6548,28 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150478</v>
+        <v>558.8475295150333</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213331</v>
+        <v>1250.415257213302</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374695</v>
+        <v>2197.270784374652</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117554</v>
+        <v>3071.633876117623</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204215814</v>
+        <v>4014.060204215757</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182553</v>
+        <v>4993.313206182494</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.92677536904</v>
+        <v>5699.926775368982</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.70787425022</v>
+        <v>5925.707874250162</v>
       </c>
       <c r="R30" t="n">
         <v>5571.538498249245</v>
@@ -6630,7 +6630,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
         <v>275.6639043471516</v>
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347548458</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622050484</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626353666</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859074001</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361366154</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003256605</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6712,46 +6712,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>3083.800289043492</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>3565.979488556995</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N32" t="n">
-        <v>4131.022552429667</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O32" t="n">
-        <v>5041.17743537041</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P32" t="n">
-        <v>5877.044763467824</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362239327</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.00000000233</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625185508</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394466335</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922545246</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766821182</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073911134</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595668035</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340432877</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6812,25 +6812,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X33" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y33" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="34">
@@ -6867,13 +6867,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
         <v>140.96</v>
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347545973</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351182</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071516</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361341307</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960324</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>599.777145475649</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043488</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>2257.013012360071</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>2739.192211873574</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.235275746246</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O35" t="n">
-        <v>4214.39015868699</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897741</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236841</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R35" t="n">
-        <v>7047.999999999844</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183022</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394463849</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542762</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818697</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908649</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.10959566555</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430392</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.1120342359</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927295</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939717</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402431</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500301</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448375</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546847</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149185</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213076</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374314</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117173</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.060204215307</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182045</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368533</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249712</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249241</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432119</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070612</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.52061904317</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415372</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021606</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804043</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545321</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967104</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>275.6639043471484</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>166.9289267754388</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="O37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="U37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="V37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347545973</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351182</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071516</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069874</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960324</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>599.777145475649</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043488</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L38" t="n">
-        <v>2257.013012360071</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M38" t="n">
-        <v>2739.192211873574</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.235275746246</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O38" t="n">
-        <v>4214.39015868699</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P38" t="n">
-        <v>5912.129640131786</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236841</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7047.999999999844</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183022</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394463849</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542762</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818697</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908649</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.10959566555</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430392</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.1120342359</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927295</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.912438939717</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402431</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500301</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448375</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546847</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149185</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213076</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374314</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117173</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.060204215307</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182045</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368533</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249712</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372905</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432119</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070612</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.52061904317</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415372</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021606</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804043</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545321</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967104</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>275.6639043471484</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>166.9289267754388</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347545973</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351182</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071516</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069874</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960324</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>599.777145475649</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1339.420289043488</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>3071.357825473409</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3553.537024986912</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N41" t="n">
-        <v>4118.580088859584</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O41" t="n">
-        <v>5028.734971800328</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P41" t="n">
-        <v>5864.602299897741</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236841</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7047.999999999844</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183022</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394463849</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542762</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818697</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908649</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.10959566555</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430392</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.1120342359</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927295</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939717</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402431</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500301</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448375</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546847</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149185</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213076</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374314</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117173</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.060204215307</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182045</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368533</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249712</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372905</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432119</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070612</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.52061904317</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415372</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021606</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804043</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545321</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967104</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>275.6639043471484</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754388</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020856</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324038</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044373</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069874</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960324</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>599.777145475649</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>1339.420289043488</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>2257.013012360071</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>2739.192211873574</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>3304.235275746246</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>4214.39015868699</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P44" t="n">
-        <v>5912.129640131786</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.1120342359</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927295</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.912438939717</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402431</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500301</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448375</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546847</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149185</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213076</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374314</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117173</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.060204215307</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182045</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368533</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249712</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249241</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432119</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070612</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.52061904317</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415372</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021606</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804043</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545321</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967104</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893165</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>275.6639043471484</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>166.9289267754388</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9599999999969</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -8005,7 +8005,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.8446588919066</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8236,13 +8236,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>822.5705182964547</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P11" t="n">
-        <v>822.5705182966124</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>615.8520732695737</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P14" t="n">
-        <v>822.5705182966124</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>822.570518296613</v>
+        <v>822.5705182964548</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.473091295036795</v>
       </c>
       <c r="K20" t="n">
-        <v>105.4961355486801</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633166223</v>
+        <v>835.1386633165828</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9658,13 +9658,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P23" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>567.8446588920629</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9892,16 +9892,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>567.8446588919044</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>822.5705182964562</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>822.5705182964562</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q29" t="n">
         <v>615.8520732695737</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q32" t="n">
-        <v>603.2839282517996</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
         <v>294.54111633436</v>
@@ -10606,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>567.8446588919046</v>
       </c>
       <c r="P35" t="n">
-        <v>822.5705182963011</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10846,10 +10846,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q38" t="n">
-        <v>567.8446588917514</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>822.5705182963015</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11320,10 +11320,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>870.5779326741233</v>
+        <v>822.5705182964543</v>
       </c>
       <c r="Q44" t="n">
-        <v>567.8446588919103</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.388344292822751</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="12">
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292822865</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P16" t="n">
         <v>368.8061924102448</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.388344292822751</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P19" t="n">
         <v>368.8061924102448</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>110.4557669832673</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292822865</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.388344291448675</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344291399449</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699957074589</v>
+        <v>1.533699957132228</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24937,10 +24937,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344290671398</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25001,7 +25001,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.533699957573219</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25113,10 +25113,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>34.66406242702101</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344293128114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F38" t="n">
-        <v>1.388344293128171</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.388344293128171</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25718,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>142.3116902230136</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.388344292973045</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="45">
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636737</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971101</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.89833877989</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784876</v>
+        <v>6197645.178066945</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769177</v>
+        <v>7353889.199056746</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959865</v>
+        <v>8510133.220046546</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150554</v>
+        <v>9666377.241036346</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341243</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531925</v>
+        <v>11978865.28301609</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722614</v>
+        <v>13135109.30400589</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913302</v>
+        <v>14291353.32499571</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103993</v>
+        <v>15447597.34598553</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294684</v>
+        <v>16603841.36697535</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485375</v>
+        <v>17760085.38796517</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411315</v>
+        <v>913048.354241131</v>
       </c>
       <c r="C2" t="n">
+        <v>913048.3542411318</v>
+      </c>
+      <c r="D2" t="n">
         <v>913048.3542411312</v>
       </c>
-      <c r="D2" t="n">
-        <v>913048.3542411313</v>
-      </c>
       <c r="E2" t="n">
-        <v>817831.1367976777</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="F2" t="n">
-        <v>817831.1367976777</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976777</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.1367976778</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="I2" t="n">
-        <v>817831.1367976777</v>
+        <v>817831.136797669</v>
       </c>
       <c r="J2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367977718</v>
+        <v>817831.1367977731</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.1367978019</v>
+        <v>817831.136797669</v>
       </c>
       <c r="M2" t="n">
-        <v>817831.1367976601</v>
+        <v>817831.1367976692</v>
       </c>
       <c r="N2" t="n">
-        <v>817831.13679766</v>
+        <v>817831.1367976685</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.13679766</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976684</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.384614733979106e-08</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620223.9999999863</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163514</v>
+        <v>89075.8038216352</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715399</v>
+        <v>88773.85276715405</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722097</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259858213</v>
+        <v>13783.46259858299</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259851266</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850238</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850238</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850238</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850303</v>
+        <v>13783.46259850301</v>
       </c>
     </row>
     <row r="5">
@@ -26484,19 +26484,19 @@
         <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="F5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="J5" t="n">
         <v>138979.4</v>
@@ -26508,16 +26508,16 @@
         <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.3999999976</v>
+        <v>138979.4</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.3999999976</v>
+        <v>138979.4</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.3999999976</v>
+        <v>138979.4</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.3999999976</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1393333.449580504</v>
       </c>
       <c r="C6" t="n">
-        <v>651667.5014739772</v>
+        <v>651667.5014739777</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439104</v>
+        <v>651969.8621439101</v>
       </c>
       <c r="E6" t="n">
-        <v>665068.2741991578</v>
+        <v>665068.2741991659</v>
       </c>
       <c r="F6" t="n">
-        <v>665068.2741991717</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="G6" t="n">
-        <v>665068.2741991717</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="H6" t="n">
-        <v>665068.2741991718</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="I6" t="n">
-        <v>665068.2741991717</v>
+        <v>665068.274199166</v>
       </c>
       <c r="J6" t="n">
-        <v>44844.27419917949</v>
+        <v>44844.27419916575</v>
       </c>
       <c r="K6" t="n">
-        <v>665068.2741991896</v>
+        <v>665068.2741991901</v>
       </c>
       <c r="L6" t="n">
-        <v>665068.2741992893</v>
+        <v>665068.274199166</v>
       </c>
       <c r="M6" t="n">
-        <v>665068.2741991602</v>
+        <v>665068.2741991662</v>
       </c>
       <c r="N6" t="n">
-        <v>665068.27419916</v>
+        <v>665068.2741991655</v>
       </c>
       <c r="O6" t="n">
-        <v>665068.27419916</v>
+        <v>665068.2741991656</v>
       </c>
       <c r="P6" t="n">
-        <v>665068.2741991684</v>
+        <v>665068.2741991654</v>
       </c>
     </row>
   </sheetData>
@@ -26928,19 +26928,19 @@
         <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="F4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="H4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="J4" t="n">
         <v>1762</v>
@@ -26952,16 +26952,16 @@
         <v>1762</v>
       </c>
       <c r="M4" t="n">
-        <v>1761.999999999961</v>
+        <v>1762</v>
       </c>
       <c r="N4" t="n">
-        <v>1761.999999999961</v>
+        <v>1762</v>
       </c>
       <c r="O4" t="n">
-        <v>1761.999999999961</v>
+        <v>1762</v>
       </c>
       <c r="P4" t="n">
-        <v>1761.999999999961</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,16 +27144,16 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.223337312440642e-11</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1761.999999999968</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.933564585167915e-11</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
+        <v>388.0294482079482</v>
+      </c>
+      <c r="P4" t="n">
         <v>400</v>
-      </c>
-      <c r="P4" t="n">
-        <v>388.0294482079482</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27811,7 +27811,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.533699957573219</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27939,13 +27939,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28076,13 +28076,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28182,7 +28182,7 @@
         <v>400</v>
       </c>
       <c r="P10" t="n">
-        <v>388.0294482079482</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,19 +29744,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -34849,7 +34849,7 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
-        <v>1029.279517277989</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>19.22325579770342</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35080,13 +35080,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35235,13 +35235,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35311,13 +35311,13 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>1309.62021477474</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
@@ -35478,7 +35478,7 @@
         <v>131.9417801832802</v>
       </c>
       <c r="P10" t="n">
-        <v>19.22325579770342</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35545,7 +35545,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35554,10 +35554,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P11" t="n">
-        <v>1666.880950718243</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
         <v>1077.286931655656</v>
@@ -35782,7 +35782,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P14" t="n">
-        <v>1666.880950718243</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
         <v>1077.286931655656</v>
@@ -36019,7 +36019,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1749.43185498003</v>
+        <v>1749.431854979872</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36250,13 +36250,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>467.9247533916551</v>
       </c>
       <c r="K20" t="n">
-        <v>852.6104219808409</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L20" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36493,7 +36493,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,13 +36502,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P23" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1029.279517278145</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36736,16 +36736,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>1138.59522846026</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1666.880950718086</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36979,7 +36979,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1666.880950718086</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q29" t="n">
         <v>1077.286931655656</v>
@@ -37040,19 +37040,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717654</v>
+        <v>422.1086156717508</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603012961</v>
+        <v>698.5532603012815</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054183</v>
+        <v>956.4197244054037</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421645042</v>
+        <v>883.195042164617</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859578388</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
         <v>989.1444464310483</v>
@@ -37204,7 +37204,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,10 +37216,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q32" t="n">
-        <v>1064.718786637882</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
         <v>118.0642805686905</v>
@@ -37441,7 +37441,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,13 +37450,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498716</v>
       </c>
       <c r="P35" t="n">
-        <v>1666.880950717931</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37678,7 +37678,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37690,10 +37690,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q38" t="n">
-        <v>1029.279517277834</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37915,7 +37915,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1749.431854979719</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,7 +37924,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
@@ -38152,7 +38152,7 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38164,10 +38164,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1714.888365095753</v>
+        <v>1666.880950718084</v>
       </c>
       <c r="Q44" t="n">
-        <v>1029.279517277993</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
